--- a/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/DTT-Assessment-Hour-Log_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_backend_test_catering_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E762A6A-FD1F-4F4F-80D7-35ADA72C3FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC03ABDF-D2A5-4A29-A837-F028ED4FBA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -73,31 +73,54 @@
     <t>Bonus</t>
   </si>
   <si>
-    <t>Example 2</t>
-  </si>
-  <si>
-    <t>Had some issues with…</t>
-  </si>
-  <si>
-    <t>Example 3</t>
-  </si>
-  <si>
-    <t>Implemented bonus feature….</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Total amount of hours</t>
   </si>
   <si>
     <t>User Story 1 and User Story 2(a,b,c)</t>
   </si>
   <si>
-    <t>18/12/2022</t>
-  </si>
-  <si>
     <t>Created databse and implemented create and read API endpoint</t>
+  </si>
+  <si>
+    <t>User Story 2(d,e) and User Story 3</t>
+  </si>
+  <si>
+    <t>19/12/2023</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>Implemented update and delete api endpoints after that implemented search funcionality in read endpoint.</t>
+  </si>
+  <si>
+    <t>Git Version Control</t>
+  </si>
+  <si>
+    <r>
+      <t>Used git version control from the beginning. Link -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> https://github.com/BadhonRahman01/DTT_Backend_Exam</t>
+    </r>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>Implemented pagination on search method in read endpoint.</t>
+  </si>
+  <si>
+    <t>10mins</t>
+  </si>
+  <si>
+    <t>30mins</t>
   </si>
 </sst>
 </file>
@@ -107,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -173,6 +196,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -328,12 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -366,6 +389,12 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,7 +830,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.53515625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -814,311 +843,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B30" s="14">
+        <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
         <v>3</v>
       </c>
-      <c r="C5" s="9">
-        <v>44562</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9">
-        <v>44562</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="16">
-        <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>4</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="6"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="6"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/DTT-Assessment-Hour-Log_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_backend_test_catering_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC03ABDF-D2A5-4A29-A837-F028ED4FBA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F79D56-C74F-478B-8AB1-7B7A9056EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>30mins</t>
+  </si>
+  <si>
+    <t>Update Delete API and POSTMAN Collection</t>
+  </si>
+  <si>
+    <t>25/12/2023</t>
+  </si>
+  <si>
+    <t>Updated code for delete api end point and created all postman collection</t>
   </si>
 </sst>
 </file>
@@ -829,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.53515625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -943,10 +952,18 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="4"/>
     </row>
@@ -1124,7 +1141,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>

--- a/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/DTT-Assessment-Hour-Log_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_backend_test_catering_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F79D56-C74F-478B-8AB1-7B7A9056EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0370528A-ADEE-4EA4-BDDD-CD3CB562EDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     <t>25/12/2023</t>
   </si>
   <si>
-    <t>Updated code for delete api end point and created all postman collection</t>
+    <t>Updated skeleton, delete api  end point and created all postman collection</t>
   </si>
 </sst>
 </file>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.53515625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/DTT-Assessment-Hour-Log_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_backend_test_catering_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0370528A-ADEE-4EA4-BDDD-CD3CB562EDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D2CB3-4DCE-4A33-BF68-C0FCC1100704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Updated skeleton, delete api  end point and created all postman collection</t>
+  </si>
+  <si>
+    <t>PHP skeleton base</t>
+  </si>
+  <si>
+    <t>Updated PHP base skeleton</t>
   </si>
 </sst>
 </file>
@@ -838,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.53515625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -968,10 +974,18 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45413</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="4"/>
     </row>
@@ -1141,7 +1155,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>

--- a/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/DTT-Assessment-Hour-Log_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_backend_test_catering_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D2CB3-4DCE-4A33-BF68-C0FCC1100704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2504ADBB-89FE-4CAC-BAFE-2B509288D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Updated PHP base skeleton</t>
+  </si>
+  <si>
+    <t>BaseUrl, Config and Router</t>
+  </si>
+  <si>
+    <t>Updated config and router(bramus)</t>
+  </si>
+  <si>
+    <t>Facility create, read, update, delete and search</t>
+  </si>
+  <si>
+    <t>Implemented facility API endpoints(create,read,update,delete,search)</t>
   </si>
 </sst>
 </file>
@@ -546,9 +558,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -586,7 +598,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -692,7 +704,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -834,7 +846,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -844,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.53515625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -990,18 +1002,34 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45627</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45305</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="4"/>
     </row>
@@ -1155,7 +1183,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>

--- a/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/DTT-Assessment-Hour-Log_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_backend_test_catering_api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\RAWPHPAPI\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2504ADBB-89FE-4CAC-BAFE-2B509288D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A564AFF8-2F41-408B-BF52-C76DB39F9E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>Implemented facility API endpoints(create,read,update,delete,search)</t>
+  </si>
+  <si>
+    <t>Used the given php base skeleton</t>
+  </si>
+  <si>
+    <t>24/01/2024</t>
+  </si>
+  <si>
+    <t>Implemented everything on the given skeleton</t>
   </si>
 </sst>
 </file>
@@ -857,7 +866,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.53515625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1034,10 +1043,18 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="4"/>
     </row>
@@ -1183,7 +1200,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
